--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H2">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I2">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J2">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.34610813921576</v>
+        <v>5.684044333333333</v>
       </c>
       <c r="N2">
-        <v>5.34610813921576</v>
+        <v>17.052133</v>
       </c>
       <c r="O2">
-        <v>0.1719182716669211</v>
+        <v>0.1657316086171094</v>
       </c>
       <c r="P2">
-        <v>0.1719182716669211</v>
+        <v>0.1811873991500813</v>
       </c>
       <c r="Q2">
-        <v>25.09877012656762</v>
+        <v>27.72422938486444</v>
       </c>
       <c r="R2">
-        <v>25.09877012656762</v>
+        <v>249.51806446378</v>
       </c>
       <c r="S2">
-        <v>0.02322448096698868</v>
+        <v>0.02003223139319036</v>
       </c>
       <c r="T2">
-        <v>0.02322448096698868</v>
+        <v>0.02240957694586184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H3">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I3">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J3">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.5502434600055</v>
+        <v>12.32416133333333</v>
       </c>
       <c r="N3">
-        <v>11.5502434600055</v>
+        <v>36.972484</v>
       </c>
       <c r="O3">
-        <v>0.3714286806902476</v>
+        <v>0.3593397522697215</v>
       </c>
       <c r="P3">
-        <v>0.3714286806902476</v>
+        <v>0.3928510419240804</v>
       </c>
       <c r="Q3">
-        <v>54.22578405813825</v>
+        <v>60.11175419193779</v>
       </c>
       <c r="R3">
-        <v>54.22578405813825</v>
+        <v>541.0057877274401</v>
       </c>
       <c r="S3">
-        <v>0.05017639045369807</v>
+        <v>0.04343394193964055</v>
       </c>
       <c r="T3">
-        <v>0.05017639045369807</v>
+        <v>0.0485885094303244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H4">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I4">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J4">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.60358908344991</v>
+        <v>4.398911333333333</v>
       </c>
       <c r="N4">
-        <v>2.60358908344991</v>
+        <v>13.196734</v>
       </c>
       <c r="O4">
-        <v>0.08372530515688978</v>
+        <v>0.1282605498275261</v>
       </c>
       <c r="P4">
-        <v>0.08372530515688978</v>
+        <v>0.1402218661287388</v>
       </c>
       <c r="Q4">
-        <v>12.22326264412903</v>
+        <v>21.45592463693778</v>
       </c>
       <c r="R4">
-        <v>12.22326264412903</v>
+        <v>193.10332173244</v>
       </c>
       <c r="S4">
-        <v>0.01131047175624698</v>
+        <v>0.01550304757313251</v>
       </c>
       <c r="T4">
-        <v>0.01131047175624698</v>
+        <v>0.01734288760280436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H5">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I5">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J5">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.05956261890331</v>
+        <v>3.112757333333333</v>
       </c>
       <c r="N5">
-        <v>3.05956261890331</v>
+        <v>9.338272</v>
       </c>
       <c r="O5">
-        <v>0.0983883422858962</v>
+        <v>0.09075972139462624</v>
       </c>
       <c r="P5">
-        <v>0.0983883422858962</v>
+        <v>0.09922378720808876</v>
       </c>
       <c r="Q5">
-        <v>14.36395539708596</v>
+        <v>15.18263990705778</v>
       </c>
       <c r="R5">
-        <v>14.36395539708596</v>
+        <v>136.64375916352</v>
       </c>
       <c r="S5">
-        <v>0.01329130499415104</v>
+        <v>0.01097026545104654</v>
       </c>
       <c r="T5">
-        <v>0.01329130499415104</v>
+        <v>0.01227217292554469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H6">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I6">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J6">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.537296866202031</v>
+        <v>8.776807999999999</v>
       </c>
       <c r="N6">
-        <v>8.537296866202031</v>
+        <v>17.553616</v>
       </c>
       <c r="O6">
-        <v>0.2745394002000452</v>
+        <v>0.2559083678910167</v>
       </c>
       <c r="P6">
-        <v>0.2745394002000452</v>
+        <v>0.1865159055890107</v>
       </c>
       <c r="Q6">
-        <v>40.08068036919727</v>
+        <v>42.80934911642667</v>
       </c>
       <c r="R6">
-        <v>40.08068036919727</v>
+        <v>256.85609469856</v>
       </c>
       <c r="S6">
-        <v>0.03708759408067768</v>
+        <v>0.03093203332678751</v>
       </c>
       <c r="T6">
-        <v>0.03708759408067768</v>
+        <v>0.02306861601596185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.96730680095164</v>
+        <v>3.649884</v>
       </c>
       <c r="H7">
-        <v>2.96730680095164</v>
+        <v>10.949652</v>
       </c>
       <c r="I7">
-        <v>0.08538306305265352</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J7">
-        <v>0.08538306305265352</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.34610813921576</v>
+        <v>5.684044333333333</v>
       </c>
       <c r="N7">
-        <v>5.34610813921576</v>
+        <v>17.052133</v>
       </c>
       <c r="O7">
-        <v>0.1719182716669211</v>
+        <v>0.1657316086171094</v>
       </c>
       <c r="P7">
-        <v>0.1719182716669211</v>
+        <v>0.1811873991500813</v>
       </c>
       <c r="Q7">
-        <v>15.86354304011784</v>
+        <v>20.746102467524</v>
       </c>
       <c r="R7">
-        <v>15.86354304011784</v>
+        <v>186.714922207716</v>
       </c>
       <c r="S7">
-        <v>0.01467890862963994</v>
+        <v>0.01499016327440873</v>
       </c>
       <c r="T7">
-        <v>0.01467890862963994</v>
+        <v>0.01676913623527164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.96730680095164</v>
+        <v>3.649884</v>
       </c>
       <c r="H8">
-        <v>2.96730680095164</v>
+        <v>10.949652</v>
       </c>
       <c r="I8">
-        <v>0.08538306305265352</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J8">
-        <v>0.08538306305265352</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.5502434600055</v>
+        <v>12.32416133333333</v>
       </c>
       <c r="N8">
-        <v>11.5502434600055</v>
+        <v>36.972484</v>
       </c>
       <c r="O8">
-        <v>0.3714286806902476</v>
+        <v>0.3593397522697215</v>
       </c>
       <c r="P8">
-        <v>0.3714286806902476</v>
+        <v>0.3928510419240804</v>
       </c>
       <c r="Q8">
-        <v>34.27311597152152</v>
+        <v>44.98175926395201</v>
       </c>
       <c r="R8">
-        <v>34.27311597152152</v>
+        <v>404.835833375568</v>
       </c>
       <c r="S8">
-        <v>0.03171371846293932</v>
+        <v>0.03250171528807947</v>
       </c>
       <c r="T8">
-        <v>0.03171371846293932</v>
+        <v>0.03635888959770611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.96730680095164</v>
+        <v>3.649884</v>
       </c>
       <c r="H9">
-        <v>2.96730680095164</v>
+        <v>10.949652</v>
       </c>
       <c r="I9">
-        <v>0.08538306305265352</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J9">
-        <v>0.08538306305265352</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.60358908344991</v>
+        <v>4.398911333333333</v>
       </c>
       <c r="N9">
-        <v>2.60358908344991</v>
+        <v>13.196734</v>
       </c>
       <c r="O9">
-        <v>0.08372530515688978</v>
+        <v>0.1282605498275261</v>
       </c>
       <c r="P9">
-        <v>0.08372530515688978</v>
+        <v>0.1402218661287388</v>
       </c>
       <c r="Q9">
-        <v>7.725647594204364</v>
+        <v>16.055516092952</v>
       </c>
       <c r="R9">
-        <v>7.725647594204364</v>
+        <v>144.499644836568</v>
       </c>
       <c r="S9">
-        <v>0.007148723009313377</v>
+        <v>0.01160096495546575</v>
       </c>
       <c r="T9">
-        <v>0.007148723009313377</v>
+        <v>0.01297772133882848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.96730680095164</v>
+        <v>3.649884</v>
       </c>
       <c r="H10">
-        <v>2.96730680095164</v>
+        <v>10.949652</v>
       </c>
       <c r="I10">
-        <v>0.08538306305265352</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J10">
-        <v>0.08538306305265352</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.05956261890331</v>
+        <v>3.112757333333333</v>
       </c>
       <c r="N10">
-        <v>3.05956261890331</v>
+        <v>9.338272</v>
       </c>
       <c r="O10">
-        <v>0.0983883422858962</v>
+        <v>0.09075972139462624</v>
       </c>
       <c r="P10">
-        <v>0.0983883422858962</v>
+        <v>0.09922378720808876</v>
       </c>
       <c r="Q10">
-        <v>9.078660967009203</v>
+        <v>11.361203186816</v>
       </c>
       <c r="R10">
-        <v>9.078660967009203</v>
+        <v>102.250828681344</v>
       </c>
       <c r="S10">
-        <v>0.008400698033042732</v>
+        <v>0.008209074019117689</v>
       </c>
       <c r="T10">
-        <v>0.008400698033042732</v>
+        <v>0.009183294275855262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.96730680095164</v>
+        <v>3.649884</v>
       </c>
       <c r="H11">
-        <v>2.96730680095164</v>
+        <v>10.949652</v>
       </c>
       <c r="I11">
-        <v>0.08538306305265352</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J11">
-        <v>0.08538306305265352</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.537296866202031</v>
+        <v>8.776807999999999</v>
       </c>
       <c r="N11">
-        <v>8.537296866202031</v>
+        <v>17.553616</v>
       </c>
       <c r="O11">
-        <v>0.2745394002000452</v>
+        <v>0.2559083678910167</v>
       </c>
       <c r="P11">
-        <v>0.2745394002000452</v>
+        <v>0.1865159055890107</v>
       </c>
       <c r="Q11">
-        <v>25.33277905282441</v>
+        <v>32.034331090272</v>
       </c>
       <c r="R11">
-        <v>25.33277905282441</v>
+        <v>192.205986541632</v>
       </c>
       <c r="S11">
-        <v>0.02344101491771814</v>
+        <v>0.02314650928680947</v>
       </c>
       <c r="T11">
-        <v>0.02344101491771814</v>
+        <v>0.01726229663618294</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.9184295628007</v>
+        <v>16.89730566666667</v>
       </c>
       <c r="H12">
-        <v>12.9184295628007</v>
+        <v>50.691917</v>
       </c>
       <c r="I12">
-        <v>0.3717226292704648</v>
+        <v>0.4187351475039348</v>
       </c>
       <c r="J12">
-        <v>0.3717226292704648</v>
+        <v>0.428470671797166</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.34610813921576</v>
+        <v>5.684044333333333</v>
       </c>
       <c r="N12">
-        <v>5.34610813921576</v>
+        <v>17.052133</v>
       </c>
       <c r="O12">
-        <v>0.1719182716669211</v>
+        <v>0.1657316086171094</v>
       </c>
       <c r="P12">
-        <v>0.1719182716669211</v>
+        <v>0.1811873991500813</v>
       </c>
       <c r="Q12">
-        <v>69.06332143157431</v>
+        <v>96.04503452321788</v>
       </c>
       <c r="R12">
-        <v>69.06332143157431</v>
+        <v>864.405310708961</v>
       </c>
       <c r="S12">
-        <v>0.06390591196366197</v>
+        <v>0.06939764958034972</v>
       </c>
       <c r="T12">
-        <v>0.06390591196366197</v>
+        <v>0.0776334866350166</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.9184295628007</v>
+        <v>16.89730566666667</v>
       </c>
       <c r="H13">
-        <v>12.9184295628007</v>
+        <v>50.691917</v>
       </c>
       <c r="I13">
-        <v>0.3717226292704648</v>
+        <v>0.4187351475039348</v>
       </c>
       <c r="J13">
-        <v>0.3717226292704648</v>
+        <v>0.428470671797166</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.5502434600055</v>
+        <v>12.32416133333333</v>
       </c>
       <c r="N13">
-        <v>11.5502434600055</v>
+        <v>36.972484</v>
       </c>
       <c r="O13">
-        <v>0.3714286806902476</v>
+        <v>0.3593397522697215</v>
       </c>
       <c r="P13">
-        <v>0.3714286806902476</v>
+        <v>0.3928510419240804</v>
       </c>
       <c r="Q13">
-        <v>149.2110065712805</v>
+        <v>208.2451211346476</v>
       </c>
       <c r="R13">
-        <v>149.2110065712805</v>
+        <v>1874.206090211828</v>
       </c>
       <c r="S13">
-        <v>0.1380684457726388</v>
+        <v>0.1504681841706892</v>
       </c>
       <c r="T13">
-        <v>0.1380684457726388</v>
+        <v>0.1683251498494274</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.9184295628007</v>
+        <v>16.89730566666667</v>
       </c>
       <c r="H14">
-        <v>12.9184295628007</v>
+        <v>50.691917</v>
       </c>
       <c r="I14">
-        <v>0.3717226292704648</v>
+        <v>0.4187351475039348</v>
       </c>
       <c r="J14">
-        <v>0.3717226292704648</v>
+        <v>0.428470671797166</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.60358908344991</v>
+        <v>4.398911333333333</v>
       </c>
       <c r="N14">
-        <v>2.60358908344991</v>
+        <v>13.196734</v>
       </c>
       <c r="O14">
-        <v>0.08372530515688978</v>
+        <v>0.1282605498275261</v>
       </c>
       <c r="P14">
-        <v>0.08372530515688978</v>
+        <v>0.1402218661287388</v>
       </c>
       <c r="Q14">
-        <v>33.6342821850245</v>
+        <v>74.32974939989757</v>
       </c>
       <c r="R14">
-        <v>33.6342821850245</v>
+        <v>668.9677445990781</v>
       </c>
       <c r="S14">
-        <v>0.03112259056939108</v>
+        <v>0.05370720025096491</v>
       </c>
       <c r="T14">
-        <v>0.03112259056939108</v>
+        <v>0.060080957180833</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.9184295628007</v>
+        <v>16.89730566666667</v>
       </c>
       <c r="H15">
-        <v>12.9184295628007</v>
+        <v>50.691917</v>
       </c>
       <c r="I15">
-        <v>0.3717226292704648</v>
+        <v>0.4187351475039348</v>
       </c>
       <c r="J15">
-        <v>0.3717226292704648</v>
+        <v>0.428470671797166</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.05956261890331</v>
+        <v>3.112757333333333</v>
       </c>
       <c r="N15">
-        <v>3.05956261890331</v>
+        <v>9.338272</v>
       </c>
       <c r="O15">
-        <v>0.0983883422858962</v>
+        <v>0.09075972139462624</v>
       </c>
       <c r="P15">
-        <v>0.0983883422858962</v>
+        <v>0.09922378720808876</v>
       </c>
       <c r="Q15">
-        <v>39.52474418528045</v>
+        <v>52.59721212749156</v>
       </c>
       <c r="R15">
-        <v>39.52474418528045</v>
+        <v>473.374909147424</v>
       </c>
       <c r="S15">
-        <v>0.03657317328407579</v>
+        <v>0.03800428532559485</v>
       </c>
       <c r="T15">
-        <v>0.03657317328407579</v>
+        <v>0.04251448276330883</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.9184295628007</v>
+        <v>16.89730566666667</v>
       </c>
       <c r="H16">
-        <v>12.9184295628007</v>
+        <v>50.691917</v>
       </c>
       <c r="I16">
-        <v>0.3717226292704648</v>
+        <v>0.4187351475039348</v>
       </c>
       <c r="J16">
-        <v>0.3717226292704648</v>
+        <v>0.428470671797166</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.537296866202031</v>
+        <v>8.776807999999999</v>
       </c>
       <c r="N16">
-        <v>8.537296866202031</v>
+        <v>17.553616</v>
       </c>
       <c r="O16">
-        <v>0.2745394002000452</v>
+        <v>0.2559083678910167</v>
       </c>
       <c r="P16">
-        <v>0.2745394002000452</v>
+        <v>0.1865159055890107</v>
       </c>
       <c r="Q16">
-        <v>110.2884682227501</v>
+        <v>148.3044075536453</v>
       </c>
       <c r="R16">
-        <v>110.2884682227501</v>
+        <v>889.8264453218719</v>
       </c>
       <c r="S16">
-        <v>0.1020525076806972</v>
+        <v>0.1071578281763361</v>
       </c>
       <c r="T16">
-        <v>0.1020525076806972</v>
+        <v>0.07991659536858019</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.6217358952079</v>
+        <v>12.177799</v>
       </c>
       <c r="H17">
-        <v>11.6217358952079</v>
+        <v>36.533397</v>
       </c>
       <c r="I17">
-        <v>0.3344107890709461</v>
+        <v>0.3017802104744788</v>
       </c>
       <c r="J17">
-        <v>0.3344107890709461</v>
+        <v>0.3087965514427589</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.34610813921576</v>
+        <v>5.684044333333333</v>
       </c>
       <c r="N17">
-        <v>5.34610813921576</v>
+        <v>17.052133</v>
       </c>
       <c r="O17">
-        <v>0.1719182716669211</v>
+        <v>0.1657316086171094</v>
       </c>
       <c r="P17">
-        <v>0.1719182716669211</v>
+        <v>0.1811873991500813</v>
       </c>
       <c r="Q17">
-        <v>62.13105686118691</v>
+        <v>69.21914939842233</v>
       </c>
       <c r="R17">
-        <v>62.13105686118691</v>
+        <v>622.9723445858009</v>
       </c>
       <c r="S17">
-        <v>0.05749132488384836</v>
+        <v>0.05001451973074523</v>
       </c>
       <c r="T17">
-        <v>0.05749132488384836</v>
+        <v>0.05595004402242777</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.6217358952079</v>
+        <v>12.177799</v>
       </c>
       <c r="H18">
-        <v>11.6217358952079</v>
+        <v>36.533397</v>
       </c>
       <c r="I18">
-        <v>0.3344107890709461</v>
+        <v>0.3017802104744788</v>
       </c>
       <c r="J18">
-        <v>0.3344107890709461</v>
+        <v>0.3087965514427589</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.5502434600055</v>
+        <v>12.32416133333333</v>
       </c>
       <c r="N18">
-        <v>11.5502434600055</v>
+        <v>36.972484</v>
       </c>
       <c r="O18">
-        <v>0.3714286806902476</v>
+        <v>0.3593397522697215</v>
       </c>
       <c r="P18">
-        <v>0.3714286806902476</v>
+        <v>0.3928510419240804</v>
       </c>
       <c r="Q18">
-        <v>134.2338790175362</v>
+        <v>150.0811595609053</v>
       </c>
       <c r="R18">
-        <v>134.2338790175362</v>
+        <v>1350.730436048148</v>
       </c>
       <c r="S18">
-        <v>0.1242097581932062</v>
+        <v>0.1084416260718036</v>
       </c>
       <c r="T18">
-        <v>0.1242097581932062</v>
+        <v>0.1213110469768507</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.6217358952079</v>
+        <v>12.177799</v>
       </c>
       <c r="H19">
-        <v>11.6217358952079</v>
+        <v>36.533397</v>
       </c>
       <c r="I19">
-        <v>0.3344107890709461</v>
+        <v>0.3017802104744788</v>
       </c>
       <c r="J19">
-        <v>0.3344107890709461</v>
+        <v>0.3087965514427589</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.60358908344991</v>
+        <v>4.398911333333333</v>
       </c>
       <c r="N19">
-        <v>2.60358908344991</v>
+        <v>13.196734</v>
       </c>
       <c r="O19">
-        <v>0.08372530515688978</v>
+        <v>0.1282605498275261</v>
       </c>
       <c r="P19">
-        <v>0.08372530515688978</v>
+        <v>0.1402218661287388</v>
       </c>
       <c r="Q19">
-        <v>30.25822470750126</v>
+        <v>53.56905803615533</v>
       </c>
       <c r="R19">
-        <v>30.25822470750126</v>
+        <v>482.1215223253981</v>
       </c>
       <c r="S19">
-        <v>0.02799864536272127</v>
+        <v>0.03870649572252319</v>
       </c>
       <c r="T19">
-        <v>0.02799864536272127</v>
+        <v>0.04330002869742276</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.6217358952079</v>
+        <v>12.177799</v>
       </c>
       <c r="H20">
-        <v>11.6217358952079</v>
+        <v>36.533397</v>
       </c>
       <c r="I20">
-        <v>0.3344107890709461</v>
+        <v>0.3017802104744788</v>
       </c>
       <c r="J20">
-        <v>0.3344107890709461</v>
+        <v>0.3087965514427589</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.05956261890331</v>
+        <v>3.112757333333333</v>
       </c>
       <c r="N20">
-        <v>3.05956261890331</v>
+        <v>9.338272</v>
       </c>
       <c r="O20">
-        <v>0.0983883422858962</v>
+        <v>0.09075972139462624</v>
       </c>
       <c r="P20">
-        <v>0.0983883422858962</v>
+        <v>0.09922378720808876</v>
       </c>
       <c r="Q20">
-        <v>35.55742871174489</v>
+        <v>37.90653314110934</v>
       </c>
       <c r="R20">
-        <v>35.55742871174489</v>
+        <v>341.158798269984</v>
       </c>
       <c r="S20">
-        <v>0.03290212317920888</v>
+        <v>0.02738948782507536</v>
       </c>
       <c r="T20">
-        <v>0.03290212317920888</v>
+        <v>0.03063996331094795</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.6217358952079</v>
+        <v>12.177799</v>
       </c>
       <c r="H21">
-        <v>11.6217358952079</v>
+        <v>36.533397</v>
       </c>
       <c r="I21">
-        <v>0.3344107890709461</v>
+        <v>0.3017802104744788</v>
       </c>
       <c r="J21">
-        <v>0.3344107890709461</v>
+        <v>0.3087965514427589</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.537296866202031</v>
+        <v>8.776807999999999</v>
       </c>
       <c r="N21">
-        <v>8.537296866202031</v>
+        <v>17.553616</v>
       </c>
       <c r="O21">
-        <v>0.2745394002000452</v>
+        <v>0.2559083678910167</v>
       </c>
       <c r="P21">
-        <v>0.2745394002000452</v>
+        <v>0.1865159055890107</v>
       </c>
       <c r="Q21">
-        <v>99.21820943798605</v>
+        <v>106.882203685592</v>
       </c>
       <c r="R21">
-        <v>99.21820943798605</v>
+        <v>641.2932221135519</v>
       </c>
       <c r="S21">
-        <v>0.09180893745196139</v>
+        <v>0.07722808112433135</v>
       </c>
       <c r="T21">
-        <v>0.09180893745196139</v>
+        <v>0.0575954684351097</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.5506272588928</v>
+        <v>2.750664</v>
       </c>
       <c r="H22">
-        <v>2.5506272588928</v>
+        <v>5.501328</v>
       </c>
       <c r="I22">
-        <v>0.07339327635417302</v>
+        <v>0.06816469551390787</v>
       </c>
       <c r="J22">
-        <v>0.07339327635417302</v>
+        <v>0.04649967575573358</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.34610813921576</v>
+        <v>5.684044333333333</v>
       </c>
       <c r="N22">
-        <v>5.34610813921576</v>
+        <v>17.052133</v>
       </c>
       <c r="O22">
-        <v>0.1719182716669211</v>
+        <v>0.1657316086171094</v>
       </c>
       <c r="P22">
-        <v>0.1719182716669211</v>
+        <v>0.1811873991500813</v>
       </c>
       <c r="Q22">
-        <v>13.63592914887238</v>
+        <v>15.634896122104</v>
       </c>
       <c r="R22">
-        <v>13.63592914887238</v>
+        <v>93.80937673262399</v>
       </c>
       <c r="S22">
-        <v>0.01261764522278213</v>
+        <v>0.01129704463841542</v>
       </c>
       <c r="T22">
-        <v>0.01261764522278213</v>
+        <v>0.00842515531150346</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.5506272588928</v>
+        <v>2.750664</v>
       </c>
       <c r="H23">
-        <v>2.5506272588928</v>
+        <v>5.501328</v>
       </c>
       <c r="I23">
-        <v>0.07339327635417302</v>
+        <v>0.06816469551390787</v>
       </c>
       <c r="J23">
-        <v>0.07339327635417302</v>
+        <v>0.04649967575573358</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.5502434600055</v>
+        <v>12.32416133333333</v>
       </c>
       <c r="N23">
-        <v>11.5502434600055</v>
+        <v>36.972484</v>
       </c>
       <c r="O23">
-        <v>0.3714286806902476</v>
+        <v>0.3593397522697215</v>
       </c>
       <c r="P23">
-        <v>0.3714286806902476</v>
+        <v>0.3928510419240804</v>
       </c>
       <c r="Q23">
-        <v>29.46036581593832</v>
+        <v>33.899626909792</v>
       </c>
       <c r="R23">
-        <v>29.46036581593832</v>
+        <v>203.397761458752</v>
       </c>
       <c r="S23">
-        <v>0.02726036780776523</v>
+        <v>0.02449428479950865</v>
       </c>
       <c r="T23">
-        <v>0.02726036780776523</v>
+        <v>0.01826744606977184</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.5506272588928</v>
+        <v>2.750664</v>
       </c>
       <c r="H24">
-        <v>2.5506272588928</v>
+        <v>5.501328</v>
       </c>
       <c r="I24">
-        <v>0.07339327635417302</v>
+        <v>0.06816469551390787</v>
       </c>
       <c r="J24">
-        <v>0.07339327635417302</v>
+        <v>0.04649967575573358</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.60358908344991</v>
+        <v>4.398911333333333</v>
       </c>
       <c r="N24">
-        <v>2.60358908344991</v>
+        <v>13.196734</v>
       </c>
       <c r="O24">
-        <v>0.08372530515688978</v>
+        <v>0.1282605498275261</v>
       </c>
       <c r="P24">
-        <v>0.08372530515688978</v>
+        <v>0.1402218661287388</v>
       </c>
       <c r="Q24">
-        <v>6.640785287203061</v>
+        <v>12.099927043792</v>
       </c>
       <c r="R24">
-        <v>6.640785287203061</v>
+        <v>72.599562262752</v>
       </c>
       <c r="S24">
-        <v>0.006144874459217079</v>
+        <v>0.008742841325439723</v>
       </c>
       <c r="T24">
-        <v>0.006144874459217079</v>
+        <v>0.006520271308850237</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.5506272588928</v>
+        <v>2.750664</v>
       </c>
       <c r="H25">
-        <v>2.5506272588928</v>
+        <v>5.501328</v>
       </c>
       <c r="I25">
-        <v>0.07339327635417302</v>
+        <v>0.06816469551390787</v>
       </c>
       <c r="J25">
-        <v>0.07339327635417302</v>
+        <v>0.04649967575573358</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.05956261890331</v>
+        <v>3.112757333333333</v>
       </c>
       <c r="N25">
-        <v>3.05956261890331</v>
+        <v>9.338272</v>
       </c>
       <c r="O25">
-        <v>0.0983883422858962</v>
+        <v>0.09075972139462624</v>
       </c>
       <c r="P25">
-        <v>0.0983883422858962</v>
+        <v>0.09922378720808876</v>
       </c>
       <c r="Q25">
-        <v>7.803803816064226</v>
+        <v>8.562149537535999</v>
       </c>
       <c r="R25">
-        <v>7.803803816064226</v>
+        <v>51.372897225216</v>
       </c>
       <c r="S25">
-        <v>0.007221042795417747</v>
+        <v>0.006186608773791807</v>
       </c>
       <c r="T25">
-        <v>0.007221042795417747</v>
+        <v>0.004613873932432033</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.5506272588928</v>
+        <v>2.750664</v>
       </c>
       <c r="H26">
-        <v>2.5506272588928</v>
+        <v>5.501328</v>
       </c>
       <c r="I26">
-        <v>0.07339327635417302</v>
+        <v>0.06816469551390787</v>
       </c>
       <c r="J26">
-        <v>0.07339327635417302</v>
+        <v>0.04649967575573358</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.537296866202031</v>
+        <v>8.776807999999999</v>
       </c>
       <c r="N26">
-        <v>8.537296866202031</v>
+        <v>17.553616</v>
       </c>
       <c r="O26">
-        <v>0.2745394002000452</v>
+        <v>0.2559083678910167</v>
       </c>
       <c r="P26">
-        <v>0.2745394002000452</v>
+        <v>0.1865159055890107</v>
       </c>
       <c r="Q26">
-        <v>21.77546210419498</v>
+        <v>24.142049800512</v>
       </c>
       <c r="R26">
-        <v>21.77546210419498</v>
+        <v>96.56819920204799</v>
       </c>
       <c r="S26">
-        <v>0.02014934606899083</v>
+        <v>0.01744391597675227</v>
       </c>
       <c r="T26">
-        <v>0.02014934606899083</v>
+        <v>0.008672929133176015</v>
       </c>
     </row>
   </sheetData>
